--- a/templates/Playable Races.xlsx
+++ b/templates/Playable Races.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="164">
   <si>
     <t>RACE</t>
   </si>
@@ -490,6 +490,24 @@
   </si>
   <si>
     <t>Truedive</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>Hobgoblin of the Feywild</t>
+  </si>
+  <si>
+    <t>Owlfolk</t>
+  </si>
+  <si>
+    <t>Rabbitfolk</t>
+  </si>
+  <si>
+    <t>Locathah</t>
+  </si>
+  <si>
+    <t>Verdan</t>
   </si>
 </sst>
 </file>
@@ -896,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,26 +1297,26 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
         <v>98</v>
@@ -1306,7 +1324,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
         <v>98</v>
@@ -1314,45 +1332,45 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>109</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>106</v>
       </c>
       <c r="C52" t="s">
         <v>46</v>
@@ -1360,7 +1378,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
         <v>46</v>
@@ -1368,23 +1386,23 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>108</v>
-      </c>
-      <c r="C55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>46</v>
@@ -1392,7 +1410,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>46</v>
@@ -1400,18 +1418,18 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>15</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>110</v>
-      </c>
-      <c r="C58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>111</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
@@ -1419,23 +1437,23 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
@@ -1443,26 +1461,26 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>115</v>
       </c>
-      <c r="C63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>16</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>117</v>
-      </c>
-      <c r="C64" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>118</v>
       </c>
       <c r="C65" t="s">
         <v>46</v>
@@ -1470,7 +1488,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
@@ -1478,7 +1496,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
         <v>46</v>
@@ -1486,50 +1504,50 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>17</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>71</v>
       </c>
-      <c r="C70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>123</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
         <v>46</v>
@@ -1537,7 +1555,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
         <v>46</v>
@@ -1545,15 +1563,15 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
         <v>46</v>
@@ -1561,15 +1579,15 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
         <v>46</v>
@@ -1577,39 +1595,39 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
         <v>46</v>
@@ -1617,23 +1635,20 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
         <v>46</v>
@@ -1641,7 +1656,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
         <v>46</v>
@@ -1649,66 +1664,63 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>27</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B95" t="s">
         <v>131</v>
-      </c>
-      <c r="C90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>153</v>
-      </c>
-      <c r="C92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>154</v>
-      </c>
-      <c r="C93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>155</v>
-      </c>
-      <c r="C94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>130</v>
       </c>
       <c r="C95" t="s">
         <v>126</v>
@@ -1716,7 +1728,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" t="s">
         <v>126</v>
@@ -1724,7 +1736,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C97" t="s">
         <v>126</v>
@@ -1732,7 +1744,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C98" t="s">
         <v>126</v>
@@ -1740,7 +1752,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s">
         <v>126</v>
@@ -1748,82 +1760,82 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C100" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>28</v>
+      <c r="B101" t="s">
+        <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>43</v>
+      <c r="B102" t="s">
+        <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>29</v>
+      <c r="B103" t="s">
+        <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>30</v>
-      </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>135</v>
+      <c r="A106" t="s">
+        <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>136</v>
+      <c r="A107" t="s">
+        <v>43</v>
       </c>
       <c r="C107" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>137</v>
+      <c r="A108" t="s">
+        <v>29</v>
       </c>
       <c r="C108" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C109" t="s">
         <v>46</v>
@@ -1831,7 +1843,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
         <v>46</v>
@@ -1839,7 +1851,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
         <v>46</v>
@@ -1847,7 +1859,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
         <v>46</v>
@@ -1855,65 +1867,110 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>143</v>
       </c>
-      <c r="C113" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>31</v>
-      </c>
-      <c r="C114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>32</v>
-      </c>
-      <c r="C115" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>42</v>
-      </c>
-      <c r="C116" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>33</v>
-      </c>
-      <c r="C117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>148</v>
-      </c>
       <c r="C118" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>42</v>
+      </c>
+      <c r="C121" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>35</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C126" t="s">
         <v>68</v>
       </c>
     </row>
